--- a/data/trans_dic/P14B34-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P14B34-Clase-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.006506235442620604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009707336338490625</v>
+        <v>0.009707336338490623</v>
       </c>
     </row>
     <row r="5">
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.004951948115614505</v>
+        <v>0.004808502907161688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001749670072862837</v>
+        <v>0.001751804200146069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.004250608093326839</v>
+        <v>0.003936766157558409</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.03473401240193218</v>
+        <v>0.03655095311516614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01973992225973733</v>
+        <v>0.0184909345391989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01977699149318172</v>
+        <v>0.02101977934046288</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0.01378343933364252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.002226068891889842</v>
+        <v>0.002226068891889841</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.01226257208232451</v>
+        <v>0.01245483703077523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002571564855940678</v>
+        <v>0.002577418035392609</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04317229564209742</v>
+        <v>0.04451405992825055</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03657764726532338</v>
+        <v>0.0346023929777408</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.00804639680143753</v>
+        <v>0.008193297019681091</v>
       </c>
     </row>
     <row r="10">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.004897201434807403</v>
+        <v>0.003414666963485859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007193765015681118</v>
+        <v>0.006939909678506237</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004353922256748985</v>
+        <v>0.004929175090169182</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02619500747620403</v>
+        <v>0.02492653030722512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02937941599794086</v>
+        <v>0.02896494151679804</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02604471592978793</v>
+        <v>0.02517087078718508</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         <v>0.007538298414944396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01233278809903462</v>
+        <v>0.01233278809903461</v>
       </c>
     </row>
     <row r="14">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.01071224370097662</v>
+        <v>0.011253922632733</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003800912848801269</v>
+        <v>0.003909400084701553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007784719147343419</v>
+        <v>0.007540362012376674</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.02661018267136842</v>
+        <v>0.02645335199571078</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01521255017241392</v>
+        <v>0.01466715673255288</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0185471334729072</v>
+        <v>0.01803971307523544</v>
       </c>
     </row>
     <row r="16">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.01325899738655776</v>
+        <v>0.01433264471511876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01232357664702725</v>
+        <v>0.01280166295746068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008623020951566081</v>
+        <v>0.008874506594261183</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04385435685819696</v>
+        <v>0.04201602618757293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03483287158614989</v>
+        <v>0.03537367094644166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02599904060317851</v>
+        <v>0.02464505233363032</v>
       </c>
     </row>
     <row r="19">
@@ -961,13 +961,13 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.01281746629827478</v>
+        <v>0.01302355215781987</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.007780648868597841</v>
+        <v>0.008052546085423964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.007462576141796661</v>
+        <v>0.007555283562089181</v>
       </c>
     </row>
     <row r="24">
@@ -979,13 +979,13 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.02175609915661611</v>
+        <v>0.02248077000105412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01524481847056082</v>
+        <v>0.01506744266130334</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01342678826597876</v>
+        <v>0.01340883970606704</v>
       </c>
     </row>
     <row r="25">
@@ -1137,13 +1137,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>2154</v>
+        <v>2092</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2315</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="7">
@@ -1155,13 +1155,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>15110</v>
+        <v>15900</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8470</v>
+        <v>7934</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10769</v>
+        <v>11446</v>
       </c>
     </row>
     <row r="8">
@@ -1217,10 +1217,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>5136</v>
+        <v>5216</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1235,13 +1235,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>18080</v>
+        <v>18642</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13798</v>
+        <v>13053</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>3878</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="12">
@@ -1297,13 +1297,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>3077</v>
+        <v>2146</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3755</v>
+        <v>3622</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2046</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="15">
@@ -1315,13 +1315,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>16460</v>
+        <v>15663</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15334</v>
+        <v>15117</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12237</v>
+        <v>11827</v>
       </c>
     </row>
     <row r="16">
@@ -1377,13 +1377,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>12416</v>
+        <v>13043</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4370</v>
+        <v>4494</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8742</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="19">
@@ -1395,13 +1395,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>30841</v>
+        <v>30660</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17489</v>
+        <v>16862</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20829</v>
+        <v>20259</v>
       </c>
     </row>
     <row r="20">
@@ -1457,13 +1457,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>6770</v>
+        <v>7318</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7649</v>
+        <v>7946</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4868</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="23">
@@ -1475,13 +1475,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>22392</v>
+        <v>21453</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21621</v>
+        <v>21957</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14677</v>
+        <v>13912</v>
       </c>
     </row>
     <row r="24">
@@ -1605,13 +1605,13 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>43819</v>
+        <v>44523</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26343</v>
+        <v>27264</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>25530</v>
+        <v>25847</v>
       </c>
     </row>
     <row r="31">
@@ -1623,13 +1623,13 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>74377</v>
+        <v>76854</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>51615</v>
+        <v>51014</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>45934</v>
+        <v>45873</v>
       </c>
     </row>
     <row r="32">
